--- a/DataSets/2001-2020-National-Data-Appendix_508.xlsx
+++ b/DataSets/2001-2020-National-Data-Appendix_508.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamr\Code\SavvyCoders\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamr\Code\SavvyCoders\Capstone\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333A652E-5CC5-405F-94AB-3D5698DEEA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1853FD97-9341-4DD7-87D6-71F964F57703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="6" r:id="rId1"/>
@@ -25,9 +25,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId10"/>
-    <pivotCache cacheId="24" r:id="rId11"/>
-    <pivotCache cacheId="28" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1140,7 +1140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1249,23 +1249,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1285,6 +1273,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7890,464 +7887,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33D84037-F843-4018-AC06-94F98ED66F55}" name="PivotTable7" cacheId="28" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A62:U78" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="21">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="20">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of VHA_x000a_Veteran_x000a_Suicide_x000a_Deaths" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Sum of VHA_x000a_Veteran_x000a_Crude_x000a_Rate per_x000a_100,000" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleDark16" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A412BD9C-2120-4B49-91EC-36538DF47D50}" name="PivotTable6" cacheId="24" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A18:V22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="21">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="21">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of VHA Veteran_x000a_Suicide_x000a_Deaths" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Male VHA_x000a_Veteran_x000a_Suicide_x000a_Deaths" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Female VHA_x000a_Veteran_x000a_Suicide_x000a_Deaths" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleDark16" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F556C140-AEE0-4A79-A292-61D5EA2CF509}" name="PivotTable4" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:V7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="21">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="167" showAll="0"/>
-    <pivotField numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="21">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of Veteran_x000a_Suicide_x000a_Deaths" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Male_x000a_Veteran_x000a_Suicide_x000a_Deaths" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Female" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleDark17" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4DED575-FC04-4F4E-BCC7-5351FAE46BD4}" name="PivotTable2" cacheId="15" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4DED575-FC04-4F4E-BCC7-5351FAE46BD4}" name="PivotTable2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A27:U58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisCol" showAll="0">
@@ -8861,6 +8401,463 @@
     <dataField name="Sum of Female" fld="9" baseField="1" baseItem="0"/>
     <dataField name="Female Crude rate per 100,000" fld="11" baseField="1" baseItem="2"/>
     <dataField name="Sum of Veteran_x000a_Suicide_x000a_Deaths" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleDark17" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{33D84037-F843-4018-AC06-94F98ED66F55}" name="PivotTable7" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A62:U78" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="20">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of VHA_x000a_Veteran_x000a_Suicide_x000a_Deaths" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of VHA_x000a_Veteran_x000a_Crude_x000a_Rate per_x000a_100,000" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleDark16" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A412BD9C-2120-4B49-91EC-36538DF47D50}" name="PivotTable6" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A18:V22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of VHA Veteran_x000a_Suicide_x000a_Deaths" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Male VHA_x000a_Veteran_x000a_Suicide_x000a_Deaths" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Female VHA_x000a_Veteran_x000a_Suicide_x000a_Deaths" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleDark16" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F556C140-AEE0-4A79-A292-61D5EA2CF509}" name="PivotTable4" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:V7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="21">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="167" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Veteran_x000a_Suicide_x000a_Deaths" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Male_x000a_Veteran_x000a_Suicide_x000a_Deaths" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Female" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleDark17" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
   <extLst>
@@ -9550,7 +9547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B20490D-3D9A-40DB-85D4-AFC202635477}">
   <dimension ref="A1:V97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="W86" sqref="W86"/>
     </sheetView>
   </sheetViews>
@@ -9584,54 +9581,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
     </row>
     <row r="3" spans="1:22">
       <c r="B3" s="37" t="s">
@@ -9710,67 +9707,67 @@
       <c r="A5" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5">
         <v>11999</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5">
         <v>12269</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5">
         <v>12003</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5">
         <v>12005</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5">
         <v>12242</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5">
         <v>12068</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5">
         <v>12497</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5">
         <v>13130</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5">
         <v>13034</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5">
         <v>13093</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5">
         <v>12885</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5">
         <v>12879</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5">
         <v>13000</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5">
         <v>13288</v>
       </c>
-      <c r="P5" s="38">
+      <c r="P5">
         <v>13242</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q5">
         <v>12981</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5">
         <v>13534</v>
       </c>
-      <c r="S5" s="38">
+      <c r="S5">
         <v>13564</v>
       </c>
-      <c r="T5" s="38">
+      <c r="T5">
         <v>12947</v>
       </c>
-      <c r="U5" s="38">
+      <c r="U5">
         <v>12237</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5">
         <v>254897</v>
       </c>
     </row>
@@ -9778,67 +9775,67 @@
       <c r="A6" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6">
         <v>11691</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6">
         <v>12001</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6">
         <v>11699</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6">
         <v>11669</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6">
         <v>11862</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6">
         <v>11722</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6">
         <v>12125</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6">
         <v>12712</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6">
         <v>12576</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6">
         <v>12624</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6">
         <v>12379</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6">
         <v>12397</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6">
         <v>12492</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6">
         <v>12700</v>
       </c>
-      <c r="P6" s="38">
+      <c r="P6">
         <v>12612</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="Q6">
         <v>12383</v>
       </c>
-      <c r="R6" s="38">
+      <c r="R6">
         <v>12781</v>
       </c>
-      <c r="S6" s="38">
+      <c r="S6">
         <v>12852</v>
       </c>
-      <c r="T6" s="38">
+      <c r="T6">
         <v>12259</v>
       </c>
-      <c r="U6" s="38">
+      <c r="U6">
         <v>11686</v>
       </c>
-      <c r="V6" s="38">
+      <c r="V6">
         <v>245222</v>
       </c>
     </row>
@@ -9846,119 +9843,119 @@
       <c r="A7" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7">
         <v>308</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7">
         <v>268</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7">
         <v>304</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7">
         <v>336</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7">
         <v>380</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7">
         <v>346</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7">
         <v>372</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7">
         <v>418</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7">
         <v>458</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7">
         <v>469</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7">
         <v>506</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7">
         <v>482</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7">
         <v>508</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7">
         <v>588</v>
       </c>
-      <c r="P7" s="38">
+      <c r="P7">
         <v>630</v>
       </c>
-      <c r="Q7" s="38">
+      <c r="Q7">
         <v>598</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R7">
         <v>753</v>
       </c>
-      <c r="S7" s="38">
+      <c r="S7">
         <v>712</v>
       </c>
-      <c r="T7" s="38">
+      <c r="T7">
         <v>688</v>
       </c>
-      <c r="U7" s="38">
+      <c r="U7">
         <v>551</v>
       </c>
-      <c r="V7" s="38">
+      <c r="V7">
         <v>9675</v>
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
     </row>
     <row r="18" spans="1:22">
       <c r="B18" s="37" t="s">
@@ -10037,67 +10034,67 @@
       <c r="A20" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20">
         <v>1571</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20">
         <v>1706</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20">
         <v>1638</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20">
         <v>1724</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20">
         <v>1724</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20">
         <v>1809</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20">
         <v>1792</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20">
         <v>1943</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20">
         <v>1899</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20">
         <v>1932</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20">
         <v>2123</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20">
         <v>2108</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20">
         <v>2187</v>
       </c>
-      <c r="O20" s="38">
+      <c r="O20">
         <v>2271</v>
       </c>
-      <c r="P20" s="38">
+      <c r="P20">
         <v>2315</v>
       </c>
-      <c r="Q20" s="38">
+      <c r="Q20">
         <v>2358</v>
       </c>
-      <c r="R20" s="38">
+      <c r="R20">
         <v>2370</v>
       </c>
-      <c r="S20" s="38">
+      <c r="S20">
         <v>2388</v>
       </c>
-      <c r="T20" s="38">
+      <c r="T20">
         <v>2478</v>
       </c>
-      <c r="U20" s="38">
+      <c r="U20">
         <v>2440</v>
       </c>
-      <c r="V20" s="38">
+      <c r="V20">
         <v>40776</v>
       </c>
     </row>
@@ -10105,67 +10102,67 @@
       <c r="A21" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21">
         <v>1534</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21">
         <v>1668</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21">
         <v>1602</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21">
         <v>1677</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21">
         <v>1667</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21">
         <v>1774</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21">
         <v>1741</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21">
         <v>1890</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21">
         <v>1838</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21">
         <v>1866</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21">
         <v>2048</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21">
         <v>2027</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21">
         <v>2113</v>
       </c>
-      <c r="O21" s="38">
+      <c r="O21">
         <v>2181</v>
       </c>
-      <c r="P21" s="38">
+      <c r="P21">
         <v>2218</v>
       </c>
-      <c r="Q21" s="38">
+      <c r="Q21">
         <v>2256</v>
       </c>
-      <c r="R21" s="38">
+      <c r="R21">
         <v>2276</v>
       </c>
-      <c r="S21" s="38">
+      <c r="S21">
         <v>2307</v>
       </c>
-      <c r="T21" s="38">
+      <c r="T21">
         <v>2360</v>
       </c>
-      <c r="U21" s="38">
+      <c r="U21">
         <v>2344</v>
       </c>
-      <c r="V21" s="38">
+      <c r="V21">
         <v>39387</v>
       </c>
     </row>
@@ -10173,123 +10170,123 @@
       <c r="A22" t="s">
         <v>154</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22">
         <v>37</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22">
         <v>38</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22">
         <v>36</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22">
         <v>47</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22">
         <v>57</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22">
         <v>35</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22">
         <v>51</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22">
         <v>53</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22">
         <v>61</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22">
         <v>66</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22">
         <v>75</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22">
         <v>81</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22">
         <v>74</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22">
         <v>90</v>
       </c>
-      <c r="P22" s="38">
+      <c r="P22">
         <v>97</v>
       </c>
-      <c r="Q22" s="38">
+      <c r="Q22">
         <v>102</v>
       </c>
-      <c r="R22" s="38">
+      <c r="R22">
         <v>94</v>
       </c>
-      <c r="S22" s="38">
+      <c r="S22">
         <v>81</v>
       </c>
-      <c r="T22" s="38">
+      <c r="T22">
         <v>118</v>
       </c>
-      <c r="U22" s="38">
+      <c r="U22">
         <v>96</v>
       </c>
-      <c r="V22" s="38">
+      <c r="V22">
         <v>1389</v>
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
     </row>
     <row r="27" spans="1:22">
       <c r="B27" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="V27" s="41" t="s">
+      <c r="V27" s="49" t="s">
         <v>150</v>
       </c>
     </row>
@@ -10357,374 +10354,354 @@
       <c r="U28">
         <v>2020</v>
       </c>
-      <c r="V28" s="41"/>
+      <c r="V28" s="49"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30">
         <v>588</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30">
         <v>565</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30">
         <v>627</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30">
         <v>552</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30">
         <v>533</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30">
         <v>498</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30">
         <v>526</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30">
         <v>562</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J30">
         <v>546</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30">
         <v>575</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30">
         <v>616</v>
       </c>
-      <c r="M30" s="38">
+      <c r="M30">
         <v>675</v>
       </c>
-      <c r="N30" s="38">
+      <c r="N30">
         <v>746</v>
       </c>
-      <c r="O30" s="38">
+      <c r="O30">
         <v>730</v>
       </c>
-      <c r="P30" s="38">
+      <c r="P30">
         <v>780</v>
       </c>
-      <c r="Q30" s="38">
+      <c r="Q30">
         <v>834</v>
       </c>
-      <c r="R30" s="38">
+      <c r="R30">
         <v>804</v>
       </c>
-      <c r="S30" s="38">
+      <c r="S30">
         <v>820</v>
       </c>
-      <c r="T30" s="38">
+      <c r="T30">
         <v>772</v>
       </c>
-      <c r="U30" s="38">
+      <c r="U30">
         <v>776</v>
       </c>
-      <c r="V30" s="47">
+      <c r="V30" s="43">
         <f>AVERAGE(C30:U30)</f>
         <v>659.84210526315792</v>
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31">
         <v>26.5</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31">
         <v>26.8</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31">
         <v>31.2</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31">
         <v>28.4</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31">
         <v>28.5</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31">
         <v>27.7</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31">
         <v>30.1</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31">
         <v>32.6</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J31">
         <v>32.200000000000003</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31">
         <v>33.9</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31">
         <v>36.200000000000003</v>
       </c>
-      <c r="M31" s="38">
+      <c r="M31">
         <v>39.5</v>
       </c>
-      <c r="N31" s="38">
+      <c r="N31">
         <v>44</v>
       </c>
-      <c r="O31" s="38">
+      <c r="O31">
         <v>43.4</v>
       </c>
-      <c r="P31" s="38">
+      <c r="P31">
         <v>47</v>
       </c>
-      <c r="Q31" s="38">
+      <c r="Q31">
         <v>51.4</v>
       </c>
-      <c r="R31" s="38">
+      <c r="R31">
         <v>50.6</v>
       </c>
-      <c r="S31" s="38">
+      <c r="S31">
         <v>53</v>
       </c>
-      <c r="T31" s="38">
+      <c r="T31">
         <v>51</v>
       </c>
-      <c r="U31" s="38">
+      <c r="U31">
         <v>52.3</v>
       </c>
-      <c r="V31" s="47">
+      <c r="V31" s="43">
         <f t="shared" ref="V31:V58" si="0">AVERAGE(C31:U31)</f>
         <v>38.936842105263153</v>
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32">
         <v>30</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32">
         <v>24</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32">
         <v>41</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32">
         <v>37</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32">
         <v>43</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32">
         <v>33</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32">
         <v>35</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32">
         <v>43</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32">
         <v>61</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32">
         <v>48</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32">
         <v>57</v>
       </c>
-      <c r="M32" s="38">
+      <c r="M32">
         <v>52</v>
       </c>
-      <c r="N32" s="38">
+      <c r="N32">
         <v>62</v>
       </c>
-      <c r="O32" s="38">
+      <c r="O32">
         <v>58</v>
       </c>
-      <c r="P32" s="38">
+      <c r="P32">
         <v>62</v>
       </c>
-      <c r="Q32" s="38">
+      <c r="Q32">
         <v>57</v>
       </c>
-      <c r="R32" s="38">
+      <c r="R32">
         <v>83</v>
       </c>
-      <c r="S32" s="38">
+      <c r="S32">
         <v>85</v>
       </c>
-      <c r="T32" s="38">
+      <c r="T32">
         <v>57</v>
       </c>
-      <c r="U32" s="38">
+      <c r="U32">
         <v>67</v>
       </c>
-      <c r="V32" s="47">
+      <c r="V32" s="43">
         <f t="shared" si="0"/>
         <v>52.89473684210526</v>
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33">
         <v>7.6</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33">
         <v>6.1</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33">
         <v>10.6</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33">
         <v>10.8</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33">
         <v>10.7</v>
       </c>
-      <c r="J33" s="38">
+      <c r="J33">
         <v>15.1</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33">
         <v>11.8</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33">
         <v>14</v>
       </c>
-      <c r="M33" s="38">
+      <c r="M33">
         <v>12.7</v>
       </c>
-      <c r="N33" s="38">
+      <c r="N33">
         <v>15.6</v>
       </c>
-      <c r="O33" s="38">
+      <c r="O33">
         <v>14.8</v>
       </c>
-      <c r="P33" s="38">
+      <c r="P33">
         <v>16</v>
       </c>
-      <c r="Q33" s="38">
+      <c r="Q33">
         <v>15.2</v>
       </c>
-      <c r="R33" s="38">
+      <c r="R33">
         <v>22.9</v>
       </c>
-      <c r="S33" s="38">
+      <c r="S33">
         <v>23.8</v>
       </c>
-      <c r="T33" s="38">
+      <c r="T33">
         <v>16.3</v>
       </c>
-      <c r="U33" s="38">
+      <c r="U33">
         <v>19.5</v>
       </c>
-      <c r="V33" s="47">
+      <c r="V33" s="43">
         <f t="shared" si="0"/>
         <v>13.805263157894737</v>
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34">
         <v>618</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34">
         <v>589</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34">
         <v>668</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34">
         <v>589</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34">
         <v>576</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34">
         <v>531</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34">
         <v>561</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34">
         <v>605</v>
       </c>
-      <c r="J34" s="38">
+      <c r="J34">
         <v>607</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34">
         <v>623</v>
       </c>
-      <c r="L34" s="38">
+      <c r="L34">
         <v>673</v>
       </c>
-      <c r="M34" s="38">
+      <c r="M34">
         <v>727</v>
       </c>
-      <c r="N34" s="38">
+      <c r="N34">
         <v>808</v>
       </c>
-      <c r="O34" s="38">
+      <c r="O34">
         <v>788</v>
       </c>
-      <c r="P34" s="38">
+      <c r="P34">
         <v>842</v>
       </c>
-      <c r="Q34" s="38">
+      <c r="Q34">
         <v>891</v>
       </c>
-      <c r="R34" s="38">
+      <c r="R34">
         <v>887</v>
       </c>
-      <c r="S34" s="38">
+      <c r="S34">
         <v>905</v>
       </c>
-      <c r="T34" s="38">
+      <c r="T34">
         <v>829</v>
       </c>
-      <c r="U34" s="38">
+      <c r="U34">
         <v>843</v>
       </c>
-      <c r="V34" s="47">
+      <c r="V34" s="43">
         <f t="shared" si="0"/>
         <v>712.73684210526312</v>
       </c>
@@ -10733,369 +10710,349 @@
       <c r="A35" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="47"/>
+      <c r="V35" s="43"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B36">
         <v>2402</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36">
         <v>2343</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36">
         <v>2229</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36">
         <v>2127</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36">
         <v>2020</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36">
         <v>1959</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36">
         <v>1994</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36">
         <v>2043</v>
       </c>
-      <c r="J36" s="38">
+      <c r="J36">
         <v>1966</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36">
         <v>1919</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36">
         <v>1855</v>
       </c>
-      <c r="M36" s="38">
+      <c r="M36">
         <v>1789</v>
       </c>
-      <c r="N36" s="38">
+      <c r="N36">
         <v>1688</v>
       </c>
-      <c r="O36" s="38">
+      <c r="O36">
         <v>1706</v>
       </c>
-      <c r="P36" s="38">
+      <c r="P36">
         <v>1710</v>
       </c>
-      <c r="Q36" s="38">
+      <c r="Q36">
         <v>1564</v>
       </c>
-      <c r="R36" s="38">
+      <c r="R36">
         <v>1650</v>
       </c>
-      <c r="S36" s="38">
+      <c r="S36">
         <v>1604</v>
       </c>
-      <c r="T36" s="38">
+      <c r="T36">
         <v>1528</v>
       </c>
-      <c r="U36" s="38">
+      <c r="U36">
         <v>1458</v>
       </c>
-      <c r="V36" s="47">
+      <c r="V36" s="43">
         <f t="shared" si="0"/>
         <v>1850.1052631578948</v>
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37">
         <v>29.5</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37">
         <v>30.5</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37">
         <v>30.8</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37">
         <v>30.7</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37">
         <v>30</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37">
         <v>29.8</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37">
         <v>31.3</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I37">
         <v>33.1</v>
       </c>
-      <c r="J37" s="38">
+      <c r="J37">
         <v>32.799999999999997</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37">
         <v>33.200000000000003</v>
       </c>
-      <c r="L37" s="38">
+      <c r="L37">
         <v>33.299999999999997</v>
       </c>
-      <c r="M37" s="38">
+      <c r="M37">
         <v>33.4</v>
       </c>
-      <c r="N37" s="38">
+      <c r="N37">
         <v>32.700000000000003</v>
       </c>
-      <c r="O37" s="38">
+      <c r="O37">
         <v>34.1</v>
       </c>
-      <c r="P37" s="38">
+      <c r="P37">
         <v>35.299999999999997</v>
       </c>
-      <c r="Q37" s="38">
+      <c r="Q37">
         <v>33.4</v>
       </c>
-      <c r="R37" s="38">
+      <c r="R37">
         <v>36.4</v>
       </c>
-      <c r="S37" s="38">
+      <c r="S37">
         <v>36.6</v>
       </c>
-      <c r="T37" s="38">
+      <c r="T37">
         <v>35.9</v>
       </c>
-      <c r="U37" s="38">
+      <c r="U37">
         <v>35.200000000000003</v>
       </c>
-      <c r="V37" s="47">
+      <c r="V37" s="43">
         <f t="shared" si="0"/>
         <v>33.078947368421055</v>
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38">
         <v>107</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38">
         <v>90</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38">
         <v>90</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38">
         <v>109</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38">
         <v>117</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38">
         <v>111</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38">
         <v>115</v>
       </c>
-      <c r="I38" s="38">
+      <c r="I38">
         <v>114</v>
       </c>
-      <c r="J38" s="38">
+      <c r="J38">
         <v>127</v>
       </c>
-      <c r="K38" s="38">
+      <c r="K38">
         <v>132</v>
       </c>
-      <c r="L38" s="38">
+      <c r="L38">
         <v>141</v>
       </c>
-      <c r="M38" s="38">
+      <c r="M38">
         <v>130</v>
       </c>
-      <c r="N38" s="38">
+      <c r="N38">
         <v>121</v>
       </c>
-      <c r="O38" s="38">
+      <c r="O38">
         <v>163</v>
       </c>
-      <c r="P38" s="38">
+      <c r="P38">
         <v>152</v>
       </c>
-      <c r="Q38" s="38">
+      <c r="Q38">
         <v>135</v>
       </c>
-      <c r="R38" s="38">
+      <c r="R38">
         <v>146</v>
       </c>
-      <c r="S38" s="38">
+      <c r="S38">
         <v>140</v>
       </c>
-      <c r="T38" s="38">
+      <c r="T38">
         <v>152</v>
       </c>
-      <c r="U38" s="38">
+      <c r="U38">
         <v>117</v>
       </c>
-      <c r="V38" s="47">
+      <c r="V38" s="43">
         <f t="shared" si="0"/>
         <v>126.42105263157895</v>
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="38">
+      <c r="B39">
         <v>14</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39">
         <v>11.5</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39">
         <v>11.3</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39">
         <v>13.5</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39">
         <v>13.9</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39">
         <v>13</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39">
         <v>13.4</v>
       </c>
-      <c r="I39" s="38">
+      <c r="I39">
         <v>13.4</v>
       </c>
-      <c r="J39" s="38">
+      <c r="J39">
         <v>14.8</v>
       </c>
-      <c r="K39" s="38">
+      <c r="K39">
         <v>15.6</v>
       </c>
-      <c r="L39" s="38">
+      <c r="L39">
         <v>16.7</v>
       </c>
-      <c r="M39" s="38">
+      <c r="M39">
         <v>15.5</v>
       </c>
-      <c r="N39" s="38">
+      <c r="N39">
         <v>14.4</v>
       </c>
-      <c r="O39" s="38">
+      <c r="O39">
         <v>19.600000000000001</v>
       </c>
-      <c r="P39" s="38">
+      <c r="P39">
         <v>18.399999999999999</v>
       </c>
-      <c r="Q39" s="38">
+      <c r="Q39">
         <v>16.600000000000001</v>
       </c>
-      <c r="R39" s="38">
+      <c r="R39">
         <v>17.899999999999999</v>
       </c>
-      <c r="S39" s="38">
+      <c r="S39">
         <v>17.2</v>
       </c>
-      <c r="T39" s="38">
+      <c r="T39">
         <v>18.600000000000001</v>
       </c>
-      <c r="U39" s="38">
+      <c r="U39">
         <v>14.5</v>
       </c>
-      <c r="V39" s="47">
+      <c r="V39" s="43">
         <f t="shared" si="0"/>
         <v>15.252631578947369</v>
       </c>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40">
         <v>2509</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40">
         <v>2433</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40">
         <v>2319</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40">
         <v>2236</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40">
         <v>2137</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40">
         <v>2070</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40">
         <v>2109</v>
       </c>
-      <c r="I40" s="38">
+      <c r="I40">
         <v>2157</v>
       </c>
-      <c r="J40" s="38">
+      <c r="J40">
         <v>2093</v>
       </c>
-      <c r="K40" s="38">
+      <c r="K40">
         <v>2051</v>
       </c>
-      <c r="L40" s="38">
+      <c r="L40">
         <v>1996</v>
       </c>
-      <c r="M40" s="38">
+      <c r="M40">
         <v>1919</v>
       </c>
-      <c r="N40" s="38">
+      <c r="N40">
         <v>1809</v>
       </c>
-      <c r="O40" s="38">
+      <c r="O40">
         <v>1869</v>
       </c>
-      <c r="P40" s="38">
+      <c r="P40">
         <v>1862</v>
       </c>
-      <c r="Q40" s="38">
+      <c r="Q40">
         <v>1699</v>
       </c>
-      <c r="R40" s="38">
+      <c r="R40">
         <v>1796</v>
       </c>
-      <c r="S40" s="38">
+      <c r="S40">
         <v>1744</v>
       </c>
-      <c r="T40" s="38">
+      <c r="T40">
         <v>1680</v>
       </c>
-      <c r="U40" s="38">
+      <c r="U40">
         <v>1575</v>
       </c>
-      <c r="V40" s="47">
+      <c r="V40" s="43">
         <f t="shared" si="0"/>
         <v>1976.5263157894738</v>
       </c>
@@ -11104,369 +11061,349 @@
       <c r="A41" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="47"/>
+      <c r="V41" s="43"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="38">
+      <c r="B42">
         <v>1682</v>
       </c>
-      <c r="C42" s="38">
+      <c r="C42">
         <v>1810</v>
       </c>
-      <c r="D42" s="38">
+      <c r="D42">
         <v>1808</v>
       </c>
-      <c r="E42" s="38">
+      <c r="E42">
         <v>1881</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42">
         <v>1978</v>
       </c>
-      <c r="G42" s="38">
+      <c r="G42">
         <v>2043</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42">
         <v>2095</v>
       </c>
-      <c r="I42" s="38">
+      <c r="I42">
         <v>2296</v>
       </c>
-      <c r="J42" s="38">
+      <c r="J42">
         <v>2263</v>
       </c>
-      <c r="K42" s="38">
+      <c r="K42">
         <v>2333</v>
       </c>
-      <c r="L42" s="38">
+      <c r="L42">
         <v>2275</v>
       </c>
-      <c r="M42" s="38">
+      <c r="M42">
         <v>2296</v>
       </c>
-      <c r="N42" s="38">
+      <c r="N42">
         <v>2360</v>
       </c>
-      <c r="O42" s="38">
+      <c r="O42">
         <v>2423</v>
       </c>
-      <c r="P42" s="38">
+      <c r="P42">
         <v>2409</v>
       </c>
-      <c r="Q42" s="38">
+      <c r="Q42">
         <v>2360</v>
       </c>
-      <c r="R42" s="38">
+      <c r="R42">
         <v>2441</v>
       </c>
-      <c r="S42" s="38">
+      <c r="S42">
         <v>2575</v>
       </c>
-      <c r="T42" s="38">
+      <c r="T42">
         <v>2338</v>
       </c>
-      <c r="U42" s="38">
+      <c r="U42">
         <v>2137</v>
       </c>
-      <c r="V42" s="47">
+      <c r="V42" s="43">
         <f t="shared" si="0"/>
         <v>2216.8947368421054</v>
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B43" s="38">
+      <c r="B43">
         <v>17.7</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43">
         <v>19</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43">
         <v>18.899999999999999</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43">
         <v>19.7</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43">
         <v>20.9</v>
       </c>
-      <c r="G43" s="38">
+      <c r="G43">
         <v>22.1</v>
       </c>
-      <c r="H43" s="38">
+      <c r="H43">
         <v>23.1</v>
       </c>
-      <c r="I43" s="38">
+      <c r="I43">
         <v>25.7</v>
       </c>
-      <c r="J43" s="38">
+      <c r="J43">
         <v>25.7</v>
       </c>
-      <c r="K43" s="38">
+      <c r="K43">
         <v>26.4</v>
       </c>
-      <c r="L43" s="38">
+      <c r="L43">
         <v>25.8</v>
       </c>
-      <c r="M43" s="38">
+      <c r="M43">
         <v>26.4</v>
       </c>
-      <c r="N43" s="38">
+      <c r="N43">
         <v>27.4</v>
       </c>
-      <c r="O43" s="38">
+      <c r="O43">
         <v>28.3</v>
       </c>
-      <c r="P43" s="38">
+      <c r="P43">
         <v>28.7</v>
       </c>
-      <c r="Q43" s="38">
+      <c r="Q43">
         <v>28.6</v>
       </c>
-      <c r="R43" s="38">
+      <c r="R43">
         <v>30.3</v>
       </c>
-      <c r="S43" s="38">
+      <c r="S43">
         <v>32.6</v>
       </c>
-      <c r="T43" s="38">
+      <c r="T43">
         <v>30.5</v>
       </c>
-      <c r="U43" s="38">
+      <c r="U43">
         <v>28.9</v>
       </c>
-      <c r="V43" s="47">
+      <c r="V43" s="43">
         <f t="shared" si="0"/>
         <v>25.736842105263158</v>
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="38">
+      <c r="B44">
         <v>17</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44">
         <v>20</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44">
         <v>21</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44">
         <v>22</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44">
         <v>30</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44">
         <v>29</v>
       </c>
-      <c r="H44" s="38">
+      <c r="H44">
         <v>36</v>
       </c>
-      <c r="I44" s="38">
+      <c r="I44">
         <v>52</v>
       </c>
-      <c r="J44" s="38">
+      <c r="J44">
         <v>41</v>
       </c>
-      <c r="K44" s="38">
+      <c r="K44">
         <v>54</v>
       </c>
-      <c r="L44" s="38">
+      <c r="L44">
         <v>55</v>
       </c>
-      <c r="M44" s="38">
+      <c r="M44">
         <v>59</v>
       </c>
-      <c r="N44" s="38">
+      <c r="N44">
         <v>71</v>
       </c>
-      <c r="O44" s="38">
+      <c r="O44">
         <v>73</v>
       </c>
-      <c r="P44" s="38">
+      <c r="P44">
         <v>101</v>
       </c>
-      <c r="Q44" s="38">
+      <c r="Q44">
         <v>107</v>
       </c>
-      <c r="R44" s="38">
+      <c r="R44">
         <v>146</v>
       </c>
-      <c r="S44" s="38">
+      <c r="S44">
         <v>130</v>
       </c>
-      <c r="T44" s="38">
+      <c r="T44">
         <v>134</v>
       </c>
-      <c r="U44" s="38">
+      <c r="U44">
         <v>91</v>
       </c>
-      <c r="V44" s="47">
+      <c r="V44" s="43">
         <f t="shared" si="0"/>
         <v>66.94736842105263</v>
       </c>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45">
         <v>3.6</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45">
         <v>4</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45">
         <v>4</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45">
         <v>4</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45">
         <v>5</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H45" s="38">
+      <c r="H45">
         <v>6.9</v>
       </c>
-      <c r="I45" s="38">
+      <c r="I45">
         <v>10.6</v>
       </c>
-      <c r="J45" s="38">
+      <c r="J45">
         <v>7.9</v>
       </c>
-      <c r="K45" s="38">
+      <c r="K45">
         <v>10.1</v>
       </c>
-      <c r="L45" s="38">
+      <c r="L45">
         <v>9.5</v>
       </c>
-      <c r="M45" s="38">
+      <c r="M45">
         <v>9.9</v>
       </c>
-      <c r="N45" s="38">
+      <c r="N45">
         <v>11.2</v>
       </c>
-      <c r="O45" s="38">
+      <c r="O45">
         <v>11.2</v>
       </c>
-      <c r="P45" s="38">
+      <c r="P45">
         <v>14.5</v>
       </c>
-      <c r="Q45" s="38">
+      <c r="Q45">
         <v>15.1</v>
       </c>
-      <c r="R45" s="38">
+      <c r="R45">
         <v>19.2</v>
       </c>
-      <c r="S45" s="38">
+      <c r="S45">
         <v>16.399999999999999</v>
       </c>
-      <c r="T45" s="38">
+      <c r="T45">
         <v>16.2</v>
       </c>
-      <c r="U45" s="38">
+      <c r="U45">
         <v>10.7</v>
       </c>
-      <c r="V45" s="47">
+      <c r="V45" s="43">
         <f t="shared" si="0"/>
         <v>10.078947368421051</v>
       </c>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="38">
+      <c r="B46">
         <v>1693</v>
       </c>
-      <c r="C46" s="38">
+      <c r="C46">
         <v>1821</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46">
         <v>1822</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46">
         <v>1896</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46">
         <v>2001</v>
       </c>
-      <c r="G46" s="38">
+      <c r="G46">
         <v>2063</v>
       </c>
-      <c r="H46" s="38">
+      <c r="H46">
         <v>2126</v>
       </c>
-      <c r="I46" s="38">
+      <c r="I46">
         <v>2338</v>
       </c>
-      <c r="J46" s="38">
+      <c r="J46">
         <v>2298</v>
       </c>
-      <c r="K46" s="38">
+      <c r="K46">
         <v>2385</v>
       </c>
-      <c r="L46" s="38">
+      <c r="L46">
         <v>2325</v>
       </c>
-      <c r="M46" s="38">
+      <c r="M46">
         <v>2351</v>
       </c>
-      <c r="N46" s="38">
+      <c r="N46">
         <v>2424</v>
       </c>
-      <c r="O46" s="38">
+      <c r="O46">
         <v>2489</v>
       </c>
-      <c r="P46" s="38">
+      <c r="P46">
         <v>2499</v>
       </c>
-      <c r="Q46" s="38">
+      <c r="Q46">
         <v>2454</v>
       </c>
-      <c r="R46" s="38">
+      <c r="R46">
         <v>2558</v>
       </c>
-      <c r="S46" s="38">
+      <c r="S46">
         <v>2684</v>
       </c>
-      <c r="T46" s="38">
+      <c r="T46">
         <v>2452</v>
       </c>
-      <c r="U46" s="38">
+      <c r="U46">
         <v>2222</v>
       </c>
-      <c r="V46" s="47">
+      <c r="V46" s="43">
         <f t="shared" si="0"/>
         <v>2274.1052631578946</v>
       </c>
@@ -11475,369 +11412,349 @@
       <c r="A47" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="47"/>
+      <c r="V47" s="43"/>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="38">
+      <c r="B48">
         <v>1172</v>
       </c>
-      <c r="C48" s="38">
+      <c r="C48">
         <v>1279</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48">
         <v>1182</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48">
         <v>1273</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48">
         <v>1398</v>
       </c>
-      <c r="G48" s="38">
+      <c r="G48">
         <v>1360</v>
       </c>
-      <c r="H48" s="38">
+      <c r="H48">
         <v>1447</v>
       </c>
-      <c r="I48" s="38">
+      <c r="I48">
         <v>1454</v>
       </c>
-      <c r="J48" s="38">
+      <c r="J48">
         <v>1512</v>
       </c>
-      <c r="K48" s="38">
+      <c r="K48">
         <v>1484</v>
       </c>
-      <c r="L48" s="38">
+      <c r="L48">
         <v>1439</v>
       </c>
-      <c r="M48" s="38">
+      <c r="M48">
         <v>1436</v>
       </c>
-      <c r="N48" s="38">
+      <c r="N48">
         <v>1449</v>
       </c>
-      <c r="O48" s="38">
+      <c r="O48">
         <v>1488</v>
       </c>
-      <c r="P48" s="38">
+      <c r="P48">
         <v>1404</v>
       </c>
-      <c r="Q48" s="38">
+      <c r="Q48">
         <v>1428</v>
       </c>
-      <c r="R48" s="38">
+      <c r="R48">
         <v>1481</v>
       </c>
-      <c r="S48" s="38">
+      <c r="S48">
         <v>1414</v>
       </c>
-      <c r="T48" s="38">
+      <c r="T48">
         <v>1477</v>
       </c>
-      <c r="U48" s="38">
+      <c r="U48">
         <v>1445</v>
       </c>
-      <c r="V48" s="47">
+      <c r="V48" s="43">
         <f t="shared" si="0"/>
         <v>1413.1578947368421</v>
       </c>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B49" s="38">
+      <c r="B49">
         <v>27.6</v>
       </c>
-      <c r="C49" s="38">
+      <c r="C49">
         <v>29.1</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49">
         <v>26.6</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49">
         <v>27.8</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49">
         <v>29.9</v>
       </c>
-      <c r="G49" s="38">
+      <c r="G49">
         <v>29</v>
       </c>
-      <c r="H49" s="38">
+      <c r="H49">
         <v>30.7</v>
       </c>
-      <c r="I49" s="38">
+      <c r="I49">
         <v>30.5</v>
       </c>
-      <c r="J49" s="38">
+      <c r="J49">
         <v>32</v>
       </c>
-      <c r="K49" s="38">
+      <c r="K49">
         <v>31.9</v>
       </c>
-      <c r="L49" s="38">
+      <c r="L49">
         <v>31.2</v>
       </c>
-      <c r="M49" s="38">
+      <c r="M49">
         <v>31.2</v>
       </c>
-      <c r="N49" s="38">
+      <c r="N49">
         <v>31.2</v>
       </c>
-      <c r="O49" s="38">
+      <c r="O49">
         <v>32.6</v>
       </c>
-      <c r="P49" s="38">
+      <c r="P49">
         <v>31.7</v>
       </c>
-      <c r="Q49" s="38">
+      <c r="Q49">
         <v>32.4</v>
       </c>
-      <c r="R49" s="38">
+      <c r="R49">
         <v>33.9</v>
       </c>
-      <c r="S49" s="38">
+      <c r="S49">
         <v>32.299999999999997</v>
       </c>
-      <c r="T49" s="38">
+      <c r="T49">
         <v>33.799999999999997</v>
       </c>
-      <c r="U49" s="38">
+      <c r="U49">
         <v>32.9</v>
       </c>
-      <c r="V49" s="47">
+      <c r="V49" s="43">
         <f t="shared" si="0"/>
         <v>31.089473684210517</v>
       </c>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="38">
+      <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50" s="38">
+      <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50" s="38">
+      <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" s="38">
+      <c r="E50">
         <v>0</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50" s="38">
+      <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" s="38">
+      <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" s="38">
+      <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50" s="38">
+      <c r="J50">
         <v>0</v>
       </c>
-      <c r="K50" s="38">
+      <c r="K50">
         <v>0</v>
       </c>
-      <c r="L50" s="38">
+      <c r="L50">
         <v>0</v>
       </c>
-      <c r="M50" s="38">
+      <c r="M50">
         <v>0</v>
       </c>
-      <c r="N50" s="38">
+      <c r="N50">
         <v>0</v>
       </c>
-      <c r="O50" s="38">
+      <c r="O50">
         <v>0</v>
       </c>
-      <c r="P50" s="38">
+      <c r="P50">
         <v>0</v>
       </c>
-      <c r="Q50" s="38">
+      <c r="Q50">
         <v>0</v>
       </c>
-      <c r="R50" s="38">
+      <c r="R50">
         <v>0</v>
       </c>
-      <c r="S50" s="38">
+      <c r="S50">
         <v>0</v>
       </c>
-      <c r="T50" s="38">
+      <c r="T50">
         <v>0</v>
       </c>
-      <c r="U50" s="38">
+      <c r="U50">
         <v>0</v>
       </c>
-      <c r="V50" s="47">
+      <c r="V50" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="38">
+      <c r="B51">
         <v>0</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51">
         <v>0</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" s="38">
+      <c r="E51">
         <v>0</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51" s="38">
+      <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51" s="38">
+      <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" s="38">
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" s="38">
+      <c r="J51">
         <v>0</v>
       </c>
-      <c r="K51" s="38">
+      <c r="K51">
         <v>0</v>
       </c>
-      <c r="L51" s="38">
+      <c r="L51">
         <v>0</v>
       </c>
-      <c r="M51" s="38">
+      <c r="M51">
         <v>0</v>
       </c>
-      <c r="N51" s="38">
+      <c r="N51">
         <v>0</v>
       </c>
-      <c r="O51" s="38">
+      <c r="O51">
         <v>0</v>
       </c>
-      <c r="P51" s="38">
+      <c r="P51">
         <v>0</v>
       </c>
-      <c r="Q51" s="38">
+      <c r="Q51">
         <v>0</v>
       </c>
-      <c r="R51" s="38">
+      <c r="R51">
         <v>0</v>
       </c>
-      <c r="S51" s="38">
+      <c r="S51">
         <v>0</v>
       </c>
-      <c r="T51" s="38">
+      <c r="T51">
         <v>0</v>
       </c>
-      <c r="U51" s="38">
+      <c r="U51">
         <v>0</v>
       </c>
-      <c r="V51" s="47">
+      <c r="V51" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="38">
+      <c r="B52">
         <v>1178</v>
       </c>
-      <c r="C52" s="38">
+      <c r="C52">
         <v>1288</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D52">
         <v>1189</v>
       </c>
-      <c r="E52" s="38">
+      <c r="E52">
         <v>1280</v>
       </c>
-      <c r="F52" s="38">
+      <c r="F52">
         <v>1405</v>
       </c>
-      <c r="G52" s="38">
+      <c r="G52">
         <v>1369</v>
       </c>
-      <c r="H52" s="38">
+      <c r="H52">
         <v>1452</v>
       </c>
-      <c r="I52" s="38">
+      <c r="I52">
         <v>1464</v>
       </c>
-      <c r="J52" s="38">
+      <c r="J52">
         <v>1518</v>
       </c>
-      <c r="K52" s="38">
+      <c r="K52">
         <v>1486</v>
       </c>
-      <c r="L52" s="38">
+      <c r="L52">
         <v>1444</v>
       </c>
-      <c r="M52" s="38">
+      <c r="M52">
         <v>1440</v>
       </c>
-      <c r="N52" s="38">
+      <c r="N52">
         <v>1456</v>
       </c>
-      <c r="O52" s="38">
+      <c r="O52">
         <v>1495</v>
       </c>
-      <c r="P52" s="38">
+      <c r="P52">
         <v>1415</v>
       </c>
-      <c r="Q52" s="38">
+      <c r="Q52">
         <v>1441</v>
       </c>
-      <c r="R52" s="38">
+      <c r="R52">
         <v>1510</v>
       </c>
-      <c r="S52" s="38">
+      <c r="S52">
         <v>1435</v>
       </c>
-      <c r="T52" s="38">
+      <c r="T52">
         <v>1497</v>
       </c>
-      <c r="U52" s="38">
+      <c r="U52">
         <v>1451</v>
       </c>
-      <c r="V52" s="47">
+      <c r="V52" s="43">
         <f t="shared" si="0"/>
         <v>1422.8947368421052</v>
       </c>
@@ -11846,420 +11763,400 @@
       <c r="A53" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="47"/>
+      <c r="V53" s="43"/>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54">
         <v>5847</v>
       </c>
-      <c r="C54" s="38">
+      <c r="C54">
         <v>6004</v>
       </c>
-      <c r="D54" s="38">
+      <c r="D54">
         <v>5853</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54">
         <v>5836</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54">
         <v>5933</v>
       </c>
-      <c r="G54" s="38">
+      <c r="G54">
         <v>5862</v>
       </c>
-      <c r="H54" s="38">
+      <c r="H54">
         <v>6063</v>
       </c>
-      <c r="I54" s="38">
+      <c r="I54">
         <v>6357</v>
       </c>
-      <c r="J54" s="38">
+      <c r="J54">
         <v>6289</v>
       </c>
-      <c r="K54" s="38">
+      <c r="K54">
         <v>6313</v>
       </c>
-      <c r="L54" s="38">
+      <c r="L54">
         <v>6194</v>
       </c>
-      <c r="M54" s="38">
+      <c r="M54">
         <v>6201</v>
       </c>
-      <c r="N54" s="38">
+      <c r="N54">
         <v>6249</v>
       </c>
-      <c r="O54" s="38">
+      <c r="O54">
         <v>6353</v>
       </c>
-      <c r="P54" s="38">
+      <c r="P54">
         <v>6309</v>
       </c>
-      <c r="Q54" s="38">
+      <c r="Q54">
         <v>6197</v>
       </c>
-      <c r="R54" s="38">
+      <c r="R54">
         <v>6405</v>
       </c>
-      <c r="S54" s="38">
+      <c r="S54">
         <v>6439</v>
       </c>
-      <c r="T54" s="38">
+      <c r="T54">
         <v>6144</v>
       </c>
-      <c r="U54" s="38">
+      <c r="U54">
         <v>5870</v>
       </c>
-      <c r="V54" s="47">
+      <c r="V54" s="43">
         <f t="shared" si="0"/>
         <v>6151.105263157895</v>
       </c>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="B55" s="38">
+      <c r="B55">
         <v>24.2</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55">
         <v>25.3</v>
       </c>
-      <c r="D55" s="38">
+      <c r="D55">
         <v>25.1</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E55">
         <v>25.4</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55">
         <v>26.1</v>
       </c>
-      <c r="G55" s="38">
+      <c r="G55">
         <v>26.3</v>
       </c>
-      <c r="H55" s="38">
+      <c r="H55">
         <v>27.7</v>
       </c>
-      <c r="I55" s="38">
+      <c r="I55">
         <v>29.4</v>
       </c>
-      <c r="J55" s="38">
+      <c r="J55">
         <v>29.7</v>
       </c>
-      <c r="K55" s="38">
+      <c r="K55">
         <v>30.1</v>
       </c>
-      <c r="L55" s="38">
+      <c r="L55">
         <v>29.9</v>
       </c>
-      <c r="M55" s="38">
+      <c r="M55">
         <v>30.5</v>
       </c>
-      <c r="N55" s="38">
+      <c r="N55">
         <v>31</v>
       </c>
-      <c r="O55" s="38">
+      <c r="O55">
         <v>32.1</v>
       </c>
-      <c r="P55" s="38">
+      <c r="P55">
         <v>32.6</v>
       </c>
-      <c r="Q55" s="38">
+      <c r="Q55">
         <v>32.700000000000003</v>
       </c>
-      <c r="R55" s="38">
+      <c r="R55">
         <v>34.5</v>
       </c>
-      <c r="S55" s="38">
+      <c r="S55">
         <v>35.4</v>
       </c>
-      <c r="T55" s="38">
+      <c r="T55">
         <v>34.5</v>
       </c>
-      <c r="U55" s="38">
+      <c r="U55">
         <v>33.700000000000003</v>
       </c>
-      <c r="V55" s="47">
+      <c r="V55" s="43">
         <f t="shared" si="0"/>
         <v>30.105263157894736</v>
       </c>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="38">
+      <c r="B56">
         <v>154</v>
       </c>
-      <c r="C56" s="38">
+      <c r="C56">
         <v>134</v>
       </c>
-      <c r="D56" s="38">
+      <c r="D56">
         <v>152</v>
       </c>
-      <c r="E56" s="38">
+      <c r="E56">
         <v>168</v>
       </c>
-      <c r="F56" s="38">
+      <c r="F56">
         <v>190</v>
       </c>
-      <c r="G56" s="38">
+      <c r="G56">
         <v>173</v>
       </c>
-      <c r="H56" s="38">
+      <c r="H56">
         <v>186</v>
       </c>
-      <c r="I56" s="38">
+      <c r="I56">
         <v>209</v>
       </c>
-      <c r="J56" s="38">
+      <c r="J56">
         <v>229</v>
       </c>
-      <c r="K56" s="38">
+      <c r="K56">
         <v>235</v>
       </c>
-      <c r="L56" s="38">
+      <c r="L56">
         <v>253</v>
       </c>
-      <c r="M56" s="38">
+      <c r="M56">
         <v>241</v>
       </c>
-      <c r="N56" s="38">
+      <c r="N56">
         <v>254</v>
       </c>
-      <c r="O56" s="38">
+      <c r="O56">
         <v>294</v>
       </c>
-      <c r="P56" s="38">
+      <c r="P56">
         <v>315</v>
       </c>
-      <c r="Q56" s="38">
+      <c r="Q56">
         <v>299</v>
       </c>
-      <c r="R56" s="38">
+      <c r="R56">
         <v>378</v>
       </c>
-      <c r="S56" s="38">
+      <c r="S56">
         <v>357</v>
       </c>
-      <c r="T56" s="38">
+      <c r="T56">
         <v>345</v>
       </c>
-      <c r="U56" s="38">
+      <c r="U56">
         <v>276</v>
       </c>
-      <c r="V56" s="47">
+      <c r="V56" s="43">
         <f t="shared" si="0"/>
         <v>246.73684210526315</v>
       </c>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B57" s="38">
+      <c r="B57">
         <v>9.5</v>
       </c>
-      <c r="C57" s="38">
+      <c r="C57">
         <v>8</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57">
         <v>8.9</v>
       </c>
-      <c r="E57" s="38">
+      <c r="E57">
         <v>9.6</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F57">
         <v>10.3</v>
       </c>
-      <c r="G57" s="38">
+      <c r="G57">
         <v>9.5</v>
       </c>
-      <c r="H57" s="38">
+      <c r="H57">
         <v>10.5</v>
       </c>
-      <c r="I57" s="38">
+      <c r="I57">
         <v>12</v>
       </c>
-      <c r="J57" s="38">
+      <c r="J57">
         <v>12.9</v>
       </c>
-      <c r="K57" s="38">
+      <c r="K57">
         <v>13.2</v>
       </c>
-      <c r="L57" s="38">
+      <c r="L57">
         <v>13.8</v>
       </c>
-      <c r="M57" s="38">
+      <c r="M57">
         <v>13.1</v>
       </c>
-      <c r="N57" s="38">
+      <c r="N57">
         <v>13.6</v>
       </c>
-      <c r="O57" s="38">
+      <c r="O57">
         <v>15.7</v>
       </c>
-      <c r="P57" s="38">
+      <c r="P57">
         <v>16.5</v>
       </c>
-      <c r="Q57" s="38">
+      <c r="Q57">
         <v>15.7</v>
       </c>
-      <c r="R57" s="38">
+      <c r="R57">
         <v>19.5</v>
       </c>
-      <c r="S57" s="38">
+      <c r="S57">
         <v>18.2</v>
       </c>
-      <c r="T57" s="38">
+      <c r="T57">
         <v>17.3</v>
       </c>
-      <c r="U57" s="38">
+      <c r="U57">
         <v>13.8</v>
       </c>
-      <c r="V57" s="47">
+      <c r="V57" s="43">
         <f t="shared" si="0"/>
         <v>13.268421052631579</v>
       </c>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="38">
+      <c r="B58">
         <v>6001</v>
       </c>
-      <c r="C58" s="38">
+      <c r="C58">
         <v>6138</v>
       </c>
-      <c r="D58" s="38">
+      <c r="D58">
         <v>6005</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E58">
         <v>6004</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F58">
         <v>6123</v>
       </c>
-      <c r="G58" s="38">
+      <c r="G58">
         <v>6035</v>
       </c>
-      <c r="H58" s="38">
+      <c r="H58">
         <v>6249</v>
       </c>
-      <c r="I58" s="38">
+      <c r="I58">
         <v>6566</v>
       </c>
-      <c r="J58" s="38">
+      <c r="J58">
         <v>6518</v>
       </c>
-      <c r="K58" s="38">
+      <c r="K58">
         <v>6548</v>
       </c>
-      <c r="L58" s="38">
+      <c r="L58">
         <v>6447</v>
       </c>
-      <c r="M58" s="38">
+      <c r="M58">
         <v>6442</v>
       </c>
-      <c r="N58" s="38">
+      <c r="N58">
         <v>6503</v>
       </c>
-      <c r="O58" s="38">
+      <c r="O58">
         <v>6647</v>
       </c>
-      <c r="P58" s="38">
+      <c r="P58">
         <v>6624</v>
       </c>
-      <c r="Q58" s="38">
+      <c r="Q58">
         <v>6496</v>
       </c>
-      <c r="R58" s="38">
+      <c r="R58">
         <v>6783</v>
       </c>
-      <c r="S58" s="38">
+      <c r="S58">
         <v>6796</v>
       </c>
-      <c r="T58" s="38">
+      <c r="T58">
         <v>6489</v>
       </c>
-      <c r="U58" s="38">
+      <c r="U58">
         <v>6146</v>
       </c>
-      <c r="V58" s="47">
+      <c r="V58" s="43">
         <f t="shared" si="0"/>
         <v>6397.8421052631575</v>
       </c>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
-      <c r="N60" s="44"/>
-      <c r="O60" s="44"/>
-      <c r="P60" s="44"/>
-      <c r="Q60" s="44"/>
-      <c r="R60" s="44"/>
-      <c r="S60" s="44"/>
-      <c r="T60" s="44"/>
-      <c r="U60" s="44"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
+      <c r="U60" s="50"/>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
-      <c r="N61" s="44"/>
-      <c r="O61" s="44"/>
-      <c r="P61" s="44"/>
-      <c r="Q61" s="44"/>
-      <c r="R61" s="44"/>
-      <c r="S61" s="44"/>
-      <c r="T61" s="44"/>
-      <c r="U61" s="44"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="50"/>
+      <c r="O61" s="50"/>
+      <c r="P61" s="50"/>
+      <c r="Q61" s="50"/>
+      <c r="R61" s="50"/>
+      <c r="S61" s="50"/>
+      <c r="T61" s="50"/>
+      <c r="U61" s="50"/>
     </row>
     <row r="62" spans="1:22">
       <c r="B62" s="37" t="s">
@@ -12335,154 +12232,134 @@
       <c r="A64" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B65" s="38">
+      <c r="B65">
         <v>67</v>
       </c>
-      <c r="C65" s="38">
+      <c r="C65">
         <v>58</v>
       </c>
-      <c r="D65" s="38">
+      <c r="D65">
         <v>75</v>
       </c>
-      <c r="E65" s="38">
+      <c r="E65">
         <v>71</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F65">
         <v>64</v>
       </c>
-      <c r="G65" s="38">
+      <c r="G65">
         <v>77</v>
       </c>
-      <c r="H65" s="38">
+      <c r="H65">
         <v>77</v>
       </c>
-      <c r="I65" s="38">
+      <c r="I65">
         <v>96</v>
       </c>
-      <c r="J65" s="38">
+      <c r="J65">
         <v>113</v>
       </c>
-      <c r="K65" s="38">
+      <c r="K65">
         <v>134</v>
       </c>
-      <c r="L65" s="38">
+      <c r="L65">
         <v>185</v>
       </c>
-      <c r="M65" s="38">
+      <c r="M65">
         <v>198</v>
       </c>
-      <c r="N65" s="38">
+      <c r="N65">
         <v>249</v>
       </c>
-      <c r="O65" s="38">
+      <c r="O65">
         <v>268</v>
       </c>
-      <c r="P65" s="38">
+      <c r="P65">
         <v>285</v>
       </c>
-      <c r="Q65" s="38">
+      <c r="Q65">
         <v>317</v>
       </c>
-      <c r="R65" s="38">
+      <c r="R65">
         <v>329</v>
       </c>
-      <c r="S65" s="38">
+      <c r="S65">
         <v>316</v>
       </c>
-      <c r="T65" s="38">
+      <c r="T65">
         <v>315</v>
       </c>
-      <c r="U65" s="38">
+      <c r="U65">
         <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:21">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="B66" s="38">
+      <c r="B66">
         <v>30.4</v>
       </c>
-      <c r="C66" s="38">
+      <c r="C66">
         <v>26.5</v>
       </c>
-      <c r="D66" s="38">
+      <c r="D66">
         <v>33.6</v>
       </c>
-      <c r="E66" s="38">
+      <c r="E66">
         <v>29.9</v>
       </c>
-      <c r="F66" s="38">
+      <c r="F66">
         <v>24.7</v>
       </c>
-      <c r="G66" s="38">
+      <c r="G66">
         <v>27.6</v>
       </c>
-      <c r="H66" s="38">
+      <c r="H66">
         <v>24.9</v>
       </c>
-      <c r="I66" s="38">
+      <c r="I66">
         <v>27.8</v>
       </c>
-      <c r="J66" s="38">
+      <c r="J66">
         <v>28.9</v>
       </c>
-      <c r="K66" s="38">
+      <c r="K66">
         <v>30.7</v>
       </c>
-      <c r="L66" s="38">
+      <c r="L66">
         <v>38.700000000000003</v>
       </c>
-      <c r="M66" s="38">
+      <c r="M66">
         <v>38.5</v>
       </c>
-      <c r="N66" s="38">
+      <c r="N66">
         <v>45.1</v>
       </c>
-      <c r="O66" s="38">
+      <c r="O66">
         <v>46.2</v>
       </c>
-      <c r="P66" s="38">
+      <c r="P66">
         <v>47.4</v>
       </c>
-      <c r="Q66" s="38">
+      <c r="Q66">
         <v>51.5</v>
       </c>
-      <c r="R66" s="38">
+      <c r="R66">
         <v>54.3</v>
       </c>
-      <c r="S66" s="38">
+      <c r="S66">
         <v>54.1</v>
       </c>
-      <c r="T66" s="38">
+      <c r="T66">
         <v>56</v>
       </c>
-      <c r="U66" s="38">
+      <c r="U66">
         <v>63.6</v>
       </c>
     </row>
@@ -12490,154 +12367,134 @@
       <c r="A67" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38"/>
-      <c r="U67" s="38"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="38">
+      <c r="B68">
         <v>579</v>
       </c>
-      <c r="C68" s="38">
+      <c r="C68">
         <v>584</v>
       </c>
-      <c r="D68" s="38">
+      <c r="D68">
         <v>515</v>
       </c>
-      <c r="E68" s="38">
+      <c r="E68">
         <v>491</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68">
         <v>460</v>
       </c>
-      <c r="G68" s="38">
+      <c r="G68">
         <v>447</v>
       </c>
-      <c r="H68" s="38">
+      <c r="H68">
         <v>445</v>
       </c>
-      <c r="I68" s="38">
+      <c r="I68">
         <v>473</v>
       </c>
-      <c r="J68" s="38">
+      <c r="J68">
         <v>440</v>
       </c>
-      <c r="K68" s="38">
+      <c r="K68">
         <v>447</v>
       </c>
-      <c r="L68" s="38">
+      <c r="L68">
         <v>519</v>
       </c>
-      <c r="M68" s="38">
+      <c r="M68">
         <v>478</v>
       </c>
-      <c r="N68" s="38">
+      <c r="N68">
         <v>440</v>
       </c>
-      <c r="O68" s="38">
+      <c r="O68">
         <v>487</v>
       </c>
-      <c r="P68" s="38">
+      <c r="P68">
         <v>513</v>
       </c>
-      <c r="Q68" s="38">
+      <c r="Q68">
         <v>485</v>
       </c>
-      <c r="R68" s="38">
+      <c r="R68">
         <v>507</v>
       </c>
-      <c r="S68" s="38">
+      <c r="S68">
         <v>535</v>
       </c>
-      <c r="T68" s="38">
+      <c r="T68">
         <v>572</v>
       </c>
-      <c r="U68" s="38">
+      <c r="U68">
         <v>514</v>
       </c>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="38">
+      <c r="B69">
         <v>48.2</v>
       </c>
-      <c r="C69" s="38">
+      <c r="C69">
         <v>49</v>
       </c>
-      <c r="D69" s="38">
+      <c r="D69">
         <v>44.1</v>
       </c>
-      <c r="E69" s="38">
+      <c r="E69">
         <v>43.3</v>
       </c>
-      <c r="F69" s="38">
+      <c r="F69">
         <v>41.7</v>
       </c>
-      <c r="G69" s="38">
+      <c r="G69">
         <v>41.5</v>
       </c>
-      <c r="H69" s="38">
+      <c r="H69">
         <v>41.9</v>
       </c>
-      <c r="I69" s="38">
+      <c r="I69">
         <v>44.6</v>
       </c>
-      <c r="J69" s="38">
+      <c r="J69">
         <v>40.700000000000003</v>
       </c>
-      <c r="K69" s="38">
+      <c r="K69">
         <v>40</v>
       </c>
-      <c r="L69" s="38">
+      <c r="L69">
         <v>45.6</v>
       </c>
-      <c r="M69" s="38">
+      <c r="M69">
         <v>41.6</v>
       </c>
-      <c r="N69" s="38">
+      <c r="N69">
         <v>37.700000000000003</v>
       </c>
-      <c r="O69" s="38">
+      <c r="O69">
         <v>40.4</v>
       </c>
-      <c r="P69" s="38">
+      <c r="P69">
         <v>41.5</v>
       </c>
-      <c r="Q69" s="38">
+      <c r="Q69">
         <v>38.5</v>
       </c>
-      <c r="R69" s="38">
+      <c r="R69">
         <v>39.4</v>
       </c>
-      <c r="S69" s="38">
+      <c r="S69">
         <v>40.5</v>
       </c>
-      <c r="T69" s="38">
+      <c r="T69">
         <v>42</v>
       </c>
-      <c r="U69" s="38">
+      <c r="U69">
         <v>38.6</v>
       </c>
     </row>
@@ -12645,154 +12502,134 @@
       <c r="A70" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="39" t="s">
+      <c r="A71" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="38">
+      <c r="B71">
         <v>561</v>
       </c>
-      <c r="C71" s="38">
+      <c r="C71">
         <v>637</v>
       </c>
-      <c r="D71" s="38">
+      <c r="D71">
         <v>648</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E71">
         <v>732</v>
       </c>
-      <c r="F71" s="38">
+      <c r="F71">
         <v>753</v>
       </c>
-      <c r="G71" s="38">
+      <c r="G71">
         <v>797</v>
       </c>
-      <c r="H71" s="38">
+      <c r="H71">
         <v>768</v>
       </c>
-      <c r="I71" s="38">
+      <c r="I71">
         <v>874</v>
       </c>
-      <c r="J71" s="38">
+      <c r="J71">
         <v>834</v>
       </c>
-      <c r="K71" s="38">
+      <c r="K71">
         <v>890</v>
       </c>
-      <c r="L71" s="38">
+      <c r="L71">
         <v>894</v>
       </c>
-      <c r="M71" s="38">
+      <c r="M71">
         <v>893</v>
       </c>
-      <c r="N71" s="38">
+      <c r="N71">
         <v>937</v>
       </c>
-      <c r="O71" s="38">
+      <c r="O71">
         <v>961</v>
       </c>
-      <c r="P71" s="38">
+      <c r="P71">
         <v>973</v>
       </c>
-      <c r="Q71" s="38">
+      <c r="Q71">
         <v>983</v>
       </c>
-      <c r="R71" s="38">
+      <c r="R71">
         <v>973</v>
       </c>
-      <c r="S71" s="38">
+      <c r="S71">
         <v>995</v>
       </c>
-      <c r="T71" s="38">
+      <c r="T71">
         <v>991</v>
       </c>
-      <c r="U71" s="38">
+      <c r="U71">
         <v>901</v>
       </c>
     </row>
     <row r="72" spans="1:21">
-      <c r="A72" s="39" t="s">
+      <c r="A72" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="38">
+      <c r="B72">
         <v>35.9</v>
       </c>
-      <c r="C72" s="38">
+      <c r="C72">
         <v>35</v>
       </c>
-      <c r="D72" s="38">
+      <c r="D72">
         <v>31.8</v>
       </c>
-      <c r="E72" s="38">
+      <c r="E72">
         <v>33.6</v>
       </c>
-      <c r="F72" s="38">
+      <c r="F72">
         <v>33.1</v>
       </c>
-      <c r="G72" s="38">
+      <c r="G72">
         <v>34.299999999999997</v>
       </c>
-      <c r="H72" s="38">
+      <c r="H72">
         <v>32.799999999999997</v>
       </c>
-      <c r="I72" s="38">
+      <c r="I72">
         <v>37.299999999999997</v>
       </c>
-      <c r="J72" s="38">
+      <c r="J72">
         <v>34.799999999999997</v>
       </c>
-      <c r="K72" s="38">
+      <c r="K72">
         <v>35.299999999999997</v>
       </c>
-      <c r="L72" s="38">
+      <c r="L72">
         <v>33.799999999999997</v>
       </c>
-      <c r="M72" s="38">
+      <c r="M72">
         <v>32.700000000000003</v>
       </c>
-      <c r="N72" s="38">
+      <c r="N72">
         <v>33.6</v>
       </c>
-      <c r="O72" s="38">
+      <c r="O72">
         <v>33.6</v>
       </c>
-      <c r="P72" s="38">
+      <c r="P72">
         <v>33.299999999999997</v>
       </c>
-      <c r="Q72" s="38">
+      <c r="Q72">
         <v>33.1</v>
       </c>
-      <c r="R72" s="38">
+      <c r="R72">
         <v>32.700000000000003</v>
       </c>
-      <c r="S72" s="38">
+      <c r="S72">
         <v>33.5</v>
       </c>
-      <c r="T72" s="38">
+      <c r="T72">
         <v>33.6</v>
       </c>
-      <c r="U72" s="38">
+      <c r="U72">
         <v>32.1</v>
       </c>
     </row>
@@ -12800,154 +12637,134 @@
       <c r="A73" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="38"/>
-      <c r="S73" s="38"/>
-      <c r="T73" s="38"/>
-      <c r="U73" s="38"/>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B74" s="38">
+      <c r="B74">
         <v>364</v>
       </c>
-      <c r="C74" s="38">
+      <c r="C74">
         <v>427</v>
       </c>
-      <c r="D74" s="38">
+      <c r="D74">
         <v>400</v>
       </c>
-      <c r="E74" s="38">
+      <c r="E74">
         <v>430</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74">
         <v>447</v>
       </c>
-      <c r="G74" s="38">
+      <c r="G74">
         <v>487</v>
       </c>
-      <c r="H74" s="38">
+      <c r="H74">
         <v>502</v>
       </c>
-      <c r="I74" s="38">
+      <c r="I74">
         <v>500</v>
       </c>
-      <c r="J74" s="38">
+      <c r="J74">
         <v>512</v>
       </c>
-      <c r="K74" s="38">
+      <c r="K74">
         <v>461</v>
       </c>
-      <c r="L74" s="38">
+      <c r="L74">
         <v>525</v>
       </c>
-      <c r="M74" s="38">
+      <c r="M74">
         <v>539</v>
       </c>
-      <c r="N74" s="38">
+      <c r="N74">
         <v>561</v>
       </c>
-      <c r="O74" s="38">
+      <c r="O74">
         <v>555</v>
       </c>
-      <c r="P74" s="38">
+      <c r="P74">
         <v>544</v>
       </c>
-      <c r="Q74" s="38">
+      <c r="Q74">
         <v>573</v>
       </c>
-      <c r="R74" s="38">
+      <c r="R74">
         <v>561</v>
       </c>
-      <c r="S74" s="38">
+      <c r="S74">
         <v>542</v>
       </c>
-      <c r="T74" s="38">
+      <c r="T74">
         <v>600</v>
       </c>
-      <c r="U74" s="38">
+      <c r="U74">
         <v>708</v>
       </c>
     </row>
     <row r="75" spans="1:21">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="38">
+      <c r="B75">
         <v>42.8</v>
       </c>
-      <c r="C75" s="38">
+      <c r="C75">
         <v>41.9</v>
       </c>
-      <c r="D75" s="38">
+      <c r="D75">
         <v>35.6</v>
       </c>
-      <c r="E75" s="38">
+      <c r="E75">
         <v>36.5</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75">
         <v>35.9</v>
       </c>
-      <c r="G75" s="38">
+      <c r="G75">
         <v>37.700000000000003</v>
       </c>
-      <c r="H75" s="38">
+      <c r="H75">
         <v>38</v>
       </c>
-      <c r="I75" s="38">
+      <c r="I75">
         <v>37.6</v>
       </c>
-      <c r="J75" s="38">
+      <c r="J75">
         <v>38.9</v>
       </c>
-      <c r="K75" s="38">
+      <c r="K75">
         <v>34.9</v>
       </c>
-      <c r="L75" s="38">
+      <c r="L75">
         <v>40</v>
       </c>
-      <c r="M75" s="38">
+      <c r="M75">
         <v>41.6</v>
       </c>
-      <c r="N75" s="38">
+      <c r="N75">
         <v>44.4</v>
       </c>
-      <c r="O75" s="38">
+      <c r="O75">
         <v>44.7</v>
       </c>
-      <c r="P75" s="38">
+      <c r="P75">
         <v>44.6</v>
       </c>
-      <c r="Q75" s="38">
+      <c r="Q75">
         <v>47.4</v>
       </c>
-      <c r="R75" s="38">
+      <c r="R75">
         <v>46.1</v>
       </c>
-      <c r="S75" s="38">
+      <c r="S75">
         <v>43.5</v>
       </c>
-      <c r="T75" s="38">
+      <c r="T75">
         <v>46.5</v>
       </c>
-      <c r="U75" s="38">
+      <c r="U75">
         <v>54.3</v>
       </c>
     </row>
@@ -12955,978 +12772,958 @@
       <c r="A76" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
-      <c r="Q76" s="38"/>
-      <c r="R76" s="38"/>
-      <c r="S76" s="38"/>
-      <c r="T76" s="38"/>
-      <c r="U76" s="38"/>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="39" t="s">
+      <c r="A77" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="B77" s="38">
+      <c r="B77">
         <v>1571</v>
       </c>
-      <c r="C77" s="38">
+      <c r="C77">
         <v>1706</v>
       </c>
-      <c r="D77" s="38">
+      <c r="D77">
         <v>1638</v>
       </c>
-      <c r="E77" s="38">
+      <c r="E77">
         <v>1724</v>
       </c>
-      <c r="F77" s="38">
+      <c r="F77">
         <v>1724</v>
       </c>
-      <c r="G77" s="38">
+      <c r="G77">
         <v>1809</v>
       </c>
-      <c r="H77" s="38">
+      <c r="H77">
         <v>1792</v>
       </c>
-      <c r="I77" s="38">
+      <c r="I77">
         <v>1943</v>
       </c>
-      <c r="J77" s="38">
+      <c r="J77">
         <v>1899</v>
       </c>
-      <c r="K77" s="38">
+      <c r="K77">
         <v>1932</v>
       </c>
-      <c r="L77" s="38">
+      <c r="L77">
         <v>2123</v>
       </c>
-      <c r="M77" s="38">
+      <c r="M77">
         <v>2108</v>
       </c>
-      <c r="N77" s="38">
+      <c r="N77">
         <v>2187</v>
       </c>
-      <c r="O77" s="38">
+      <c r="O77">
         <v>2271</v>
       </c>
-      <c r="P77" s="38">
+      <c r="P77">
         <v>2315</v>
       </c>
-      <c r="Q77" s="38">
+      <c r="Q77">
         <v>2358</v>
       </c>
-      <c r="R77" s="38">
+      <c r="R77">
         <v>2370</v>
       </c>
-      <c r="S77" s="38">
+      <c r="S77">
         <v>2388</v>
       </c>
-      <c r="T77" s="38">
+      <c r="T77">
         <v>2478</v>
       </c>
-      <c r="U77" s="38">
+      <c r="U77">
         <v>2440</v>
       </c>
     </row>
     <row r="78" spans="1:21">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="38">
+      <c r="B78">
         <v>40.9</v>
       </c>
-      <c r="C78" s="38">
+      <c r="C78">
         <v>40.200000000000003</v>
       </c>
-      <c r="D78" s="38">
+      <c r="D78">
         <v>36</v>
       </c>
-      <c r="E78" s="38">
+      <c r="E78">
         <v>36.4</v>
       </c>
-      <c r="F78" s="38">
+      <c r="F78">
         <v>35.299999999999997</v>
       </c>
-      <c r="G78" s="38">
+      <c r="G78">
         <v>36.4</v>
       </c>
-      <c r="H78" s="38">
+      <c r="H78">
         <v>35.6</v>
       </c>
-      <c r="I78" s="38">
+      <c r="I78">
         <v>38.200000000000003</v>
       </c>
-      <c r="J78" s="38">
+      <c r="J78">
         <v>36.6</v>
       </c>
-      <c r="K78" s="38">
+      <c r="K78">
         <v>35.799999999999997</v>
       </c>
-      <c r="L78" s="38">
+      <c r="L78">
         <v>38.1</v>
       </c>
-      <c r="M78" s="38">
+      <c r="M78">
         <v>37</v>
       </c>
-      <c r="N78" s="38">
+      <c r="N78">
         <v>37.9</v>
       </c>
-      <c r="O78" s="38">
+      <c r="O78">
         <v>38.5</v>
       </c>
-      <c r="P78" s="38">
+      <c r="P78">
         <v>38.700000000000003</v>
       </c>
-      <c r="Q78" s="38">
+      <c r="Q78">
         <v>39</v>
       </c>
-      <c r="R78" s="38">
+      <c r="R78">
         <v>38.9</v>
       </c>
-      <c r="S78" s="38">
+      <c r="S78">
         <v>39</v>
       </c>
-      <c r="T78" s="38">
+      <c r="T78">
         <v>40.200000000000003</v>
       </c>
-      <c r="U78" s="38">
+      <c r="U78">
         <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="41" t="s">
+      <c r="A79" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="41"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="41"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="41"/>
-      <c r="O79" s="41"/>
-      <c r="P79" s="41"/>
-      <c r="Q79" s="41"/>
-      <c r="R79" s="41"/>
-      <c r="S79" s="41"/>
-      <c r="T79" s="41"/>
-      <c r="U79" s="41"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="49"/>
+      <c r="P79" s="49"/>
+      <c r="Q79" s="49"/>
+      <c r="R79" s="49"/>
+      <c r="S79" s="49"/>
+      <c r="T79" s="49"/>
+      <c r="U79" s="49"/>
     </row>
     <row r="80" spans="1:21">
-      <c r="A80" s="41"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="41"/>
-      <c r="M80" s="41"/>
-      <c r="N80" s="41"/>
-      <c r="O80" s="41"/>
-      <c r="P80" s="41"/>
-      <c r="Q80" s="41"/>
-      <c r="R80" s="41"/>
-      <c r="S80" s="41"/>
-      <c r="T80" s="41"/>
-      <c r="U80" s="41"/>
+      <c r="A80" s="49"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="49"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="49"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="49"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="49"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="49"/>
+      <c r="R80" s="49"/>
+      <c r="S80" s="49"/>
+      <c r="T80" s="49"/>
+      <c r="U80" s="49"/>
     </row>
     <row r="81" spans="1:21">
-      <c r="A81" s="40"/>
-      <c r="B81" s="50" t="s">
+      <c r="A81" s="39"/>
+      <c r="B81" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="C81" s="40"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="40"/>
-      <c r="F81" s="40"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="40"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="40"/>
-      <c r="L81" s="40"/>
-      <c r="M81" s="40"/>
-      <c r="N81" s="40"/>
-      <c r="O81" s="40"/>
-      <c r="P81" s="40"/>
-      <c r="Q81" s="40"/>
-      <c r="R81" s="40"/>
-      <c r="S81" s="40"/>
-      <c r="T81" s="40"/>
-      <c r="U81" s="40"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="39"/>
+      <c r="P81" s="39"/>
+      <c r="Q81" s="39"/>
+      <c r="R81" s="39"/>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="39"/>
     </row>
     <row r="82" spans="1:21">
-      <c r="A82" s="50" t="s">
+      <c r="A82" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="B82" s="42">
+      <c r="B82" s="40">
         <v>2001</v>
       </c>
-      <c r="C82" s="42">
+      <c r="C82" s="40">
         <v>2002</v>
       </c>
-      <c r="D82" s="42">
+      <c r="D82" s="40">
         <v>2003</v>
       </c>
-      <c r="E82" s="42">
+      <c r="E82" s="40">
         <v>2004</v>
       </c>
-      <c r="F82" s="42">
+      <c r="F82" s="40">
         <v>2005</v>
       </c>
-      <c r="G82" s="42">
+      <c r="G82" s="40">
         <v>2006</v>
       </c>
-      <c r="H82" s="42">
+      <c r="H82" s="40">
         <v>2007</v>
       </c>
-      <c r="I82" s="42">
+      <c r="I82" s="40">
         <v>2008</v>
       </c>
-      <c r="J82" s="42">
+      <c r="J82" s="40">
         <v>2009</v>
       </c>
-      <c r="K82" s="42">
+      <c r="K82" s="40">
         <v>2010</v>
       </c>
-      <c r="L82" s="42">
+      <c r="L82" s="40">
         <v>2011</v>
       </c>
-      <c r="M82" s="42">
+      <c r="M82" s="40">
         <v>2012</v>
       </c>
-      <c r="N82" s="42">
+      <c r="N82" s="40">
         <v>2013</v>
       </c>
-      <c r="O82" s="42">
+      <c r="O82" s="40">
         <v>2014</v>
       </c>
-      <c r="P82" s="42">
+      <c r="P82" s="40">
         <v>2015</v>
       </c>
-      <c r="Q82" s="42">
+      <c r="Q82" s="40">
         <v>2016</v>
       </c>
-      <c r="R82" s="42">
+      <c r="R82" s="40">
         <v>2017</v>
       </c>
-      <c r="S82" s="42">
+      <c r="S82" s="40">
         <v>2018</v>
       </c>
-      <c r="T82" s="42">
+      <c r="T82" s="40">
         <v>2019</v>
       </c>
-      <c r="U82" s="42">
+      <c r="U82" s="40">
         <v>2020</v>
       </c>
     </row>
     <row r="83" spans="1:21">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="51"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="51"/>
-      <c r="I83" s="51"/>
-      <c r="J83" s="51"/>
-      <c r="K83" s="51"/>
-      <c r="L83" s="51"/>
-      <c r="M83" s="51"/>
-      <c r="N83" s="51"/>
-      <c r="O83" s="51"/>
-      <c r="P83" s="51"/>
-      <c r="Q83" s="51"/>
-      <c r="R83" s="51"/>
-      <c r="S83" s="51"/>
-      <c r="T83" s="51"/>
-      <c r="U83" s="51"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="47"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="47"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="47"/>
+      <c r="R83" s="47"/>
+      <c r="S83" s="47"/>
+      <c r="T83" s="47"/>
+      <c r="U83" s="47"/>
     </row>
     <row r="84" spans="1:21">
-      <c r="A84" s="48" t="s">
+      <c r="A84" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="B84" s="52">
+      <c r="B84" s="48">
         <f>B34-B65</f>
         <v>551</v>
       </c>
-      <c r="C84" s="52">
+      <c r="C84" s="48">
         <f t="shared" ref="C84:T84" si="1">C34-C65</f>
         <v>531</v>
       </c>
-      <c r="D84" s="52">
+      <c r="D84" s="48">
         <f t="shared" si="1"/>
         <v>593</v>
       </c>
-      <c r="E84" s="52">
+      <c r="E84" s="48">
         <f t="shared" si="1"/>
         <v>518</v>
       </c>
-      <c r="F84" s="52">
+      <c r="F84" s="48">
         <f t="shared" si="1"/>
         <v>512</v>
       </c>
-      <c r="G84" s="52">
+      <c r="G84" s="48">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
-      <c r="H84" s="52">
+      <c r="H84" s="48">
         <f t="shared" si="1"/>
         <v>484</v>
       </c>
-      <c r="I84" s="52">
+      <c r="I84" s="48">
         <f t="shared" si="1"/>
         <v>509</v>
       </c>
-      <c r="J84" s="52">
+      <c r="J84" s="48">
         <f t="shared" si="1"/>
         <v>494</v>
       </c>
-      <c r="K84" s="52">
+      <c r="K84" s="48">
         <f t="shared" si="1"/>
         <v>489</v>
       </c>
-      <c r="L84" s="52">
+      <c r="L84" s="48">
         <f t="shared" si="1"/>
         <v>488</v>
       </c>
-      <c r="M84" s="52">
+      <c r="M84" s="48">
         <f t="shared" si="1"/>
         <v>529</v>
       </c>
-      <c r="N84" s="52">
+      <c r="N84" s="48">
         <f t="shared" si="1"/>
         <v>559</v>
       </c>
-      <c r="O84" s="52">
+      <c r="O84" s="48">
         <f t="shared" si="1"/>
         <v>520</v>
       </c>
-      <c r="P84" s="52">
+      <c r="P84" s="48">
         <f t="shared" si="1"/>
         <v>557</v>
       </c>
-      <c r="Q84" s="52">
+      <c r="Q84" s="48">
         <f t="shared" si="1"/>
         <v>574</v>
       </c>
-      <c r="R84" s="52">
+      <c r="R84" s="48">
         <f t="shared" si="1"/>
         <v>558</v>
       </c>
-      <c r="S84" s="52">
+      <c r="S84" s="48">
         <f t="shared" si="1"/>
         <v>589</v>
       </c>
-      <c r="T84" s="52">
+      <c r="T84" s="48">
         <f t="shared" si="1"/>
         <v>514</v>
       </c>
-      <c r="U84" s="52">
+      <c r="U84" s="48">
         <f>U34-U65</f>
         <v>526</v>
       </c>
     </row>
     <row r="85" spans="1:21">
-      <c r="A85" s="49" t="s">
+      <c r="A85" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="B85" s="52"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="52"/>
-      <c r="H85" s="52"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="52"/>
-      <c r="K85" s="52"/>
-      <c r="L85" s="52"/>
-      <c r="M85" s="52"/>
-      <c r="N85" s="52"/>
-      <c r="O85" s="52"/>
-      <c r="P85" s="52"/>
-      <c r="Q85" s="52"/>
-      <c r="R85" s="52"/>
-      <c r="S85" s="52"/>
-      <c r="T85" s="52"/>
-      <c r="U85" s="52"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="48"/>
+      <c r="N85" s="48"/>
+      <c r="O85" s="48"/>
+      <c r="P85" s="48"/>
+      <c r="Q85" s="48"/>
+      <c r="R85" s="48"/>
+      <c r="S85" s="48"/>
+      <c r="T85" s="48"/>
+      <c r="U85" s="48"/>
     </row>
     <row r="86" spans="1:21">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="51"/>
-      <c r="J86" s="51"/>
-      <c r="K86" s="51"/>
-      <c r="L86" s="51"/>
-      <c r="M86" s="51"/>
-      <c r="N86" s="51"/>
-      <c r="O86" s="51"/>
-      <c r="P86" s="51"/>
-      <c r="Q86" s="51"/>
-      <c r="R86" s="51"/>
-      <c r="S86" s="51"/>
-      <c r="T86" s="51"/>
-      <c r="U86" s="51"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="47"/>
+      <c r="N86" s="47"/>
+      <c r="O86" s="47"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="47"/>
+      <c r="R86" s="47"/>
+      <c r="S86" s="47"/>
+      <c r="T86" s="47"/>
+      <c r="U86" s="47"/>
     </row>
     <row r="87" spans="1:21">
-      <c r="A87" s="49" t="s">
+      <c r="A87" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B87" s="52">
+      <c r="B87" s="48">
         <f>B40-B68</f>
         <v>1930</v>
       </c>
-      <c r="C87" s="52">
+      <c r="C87" s="48">
         <f t="shared" ref="C87:U87" si="2">C40-C68</f>
         <v>1849</v>
       </c>
-      <c r="D87" s="52">
+      <c r="D87" s="48">
         <f t="shared" si="2"/>
         <v>1804</v>
       </c>
-      <c r="E87" s="52">
+      <c r="E87" s="48">
         <f t="shared" si="2"/>
         <v>1745</v>
       </c>
-      <c r="F87" s="52">
+      <c r="F87" s="48">
         <f t="shared" si="2"/>
         <v>1677</v>
       </c>
-      <c r="G87" s="52">
+      <c r="G87" s="48">
         <f t="shared" si="2"/>
         <v>1623</v>
       </c>
-      <c r="H87" s="52">
+      <c r="H87" s="48">
         <f t="shared" si="2"/>
         <v>1664</v>
       </c>
-      <c r="I87" s="52">
+      <c r="I87" s="48">
         <f t="shared" si="2"/>
         <v>1684</v>
       </c>
-      <c r="J87" s="52">
+      <c r="J87" s="48">
         <f t="shared" si="2"/>
         <v>1653</v>
       </c>
-      <c r="K87" s="52">
+      <c r="K87" s="48">
         <f t="shared" si="2"/>
         <v>1604</v>
       </c>
-      <c r="L87" s="52">
+      <c r="L87" s="48">
         <f t="shared" si="2"/>
         <v>1477</v>
       </c>
-      <c r="M87" s="52">
+      <c r="M87" s="48">
         <f t="shared" si="2"/>
         <v>1441</v>
       </c>
-      <c r="N87" s="52">
+      <c r="N87" s="48">
         <f t="shared" si="2"/>
         <v>1369</v>
       </c>
-      <c r="O87" s="52">
+      <c r="O87" s="48">
         <f t="shared" si="2"/>
         <v>1382</v>
       </c>
-      <c r="P87" s="52">
+      <c r="P87" s="48">
         <f t="shared" si="2"/>
         <v>1349</v>
       </c>
-      <c r="Q87" s="52">
+      <c r="Q87" s="48">
         <f t="shared" si="2"/>
         <v>1214</v>
       </c>
-      <c r="R87" s="52">
+      <c r="R87" s="48">
         <f t="shared" si="2"/>
         <v>1289</v>
       </c>
-      <c r="S87" s="52">
+      <c r="S87" s="48">
         <f t="shared" si="2"/>
         <v>1209</v>
       </c>
-      <c r="T87" s="52">
+      <c r="T87" s="48">
         <f t="shared" si="2"/>
         <v>1108</v>
       </c>
-      <c r="U87" s="52">
+      <c r="U87" s="48">
         <f t="shared" si="2"/>
         <v>1061</v>
       </c>
     </row>
     <row r="88" spans="1:21">
-      <c r="A88" s="48" t="s">
+      <c r="A88" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="B88" s="52"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="52"/>
-      <c r="J88" s="52"/>
-      <c r="K88" s="52"/>
-      <c r="L88" s="52"/>
-      <c r="M88" s="52"/>
-      <c r="N88" s="52"/>
-      <c r="O88" s="52"/>
-      <c r="P88" s="52"/>
-      <c r="Q88" s="52"/>
-      <c r="R88" s="52"/>
-      <c r="S88" s="52"/>
-      <c r="T88" s="52"/>
-      <c r="U88" s="52"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="48"/>
+      <c r="N88" s="48"/>
+      <c r="O88" s="48"/>
+      <c r="P88" s="48"/>
+      <c r="Q88" s="48"/>
+      <c r="R88" s="48"/>
+      <c r="S88" s="48"/>
+      <c r="T88" s="48"/>
+      <c r="U88" s="48"/>
     </row>
     <row r="89" spans="1:21">
-      <c r="A89" s="46" t="s">
+      <c r="A89" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="51"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="51"/>
-      <c r="G89" s="51"/>
-      <c r="H89" s="51"/>
-      <c r="I89" s="51"/>
-      <c r="J89" s="51"/>
-      <c r="K89" s="51"/>
-      <c r="L89" s="51"/>
-      <c r="M89" s="51"/>
-      <c r="N89" s="51"/>
-      <c r="O89" s="51"/>
-      <c r="P89" s="51"/>
-      <c r="Q89" s="51"/>
-      <c r="R89" s="51"/>
-      <c r="S89" s="51"/>
-      <c r="T89" s="51"/>
-      <c r="U89" s="51"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47"/>
+      <c r="N89" s="47"/>
+      <c r="O89" s="47"/>
+      <c r="P89" s="47"/>
+      <c r="Q89" s="47"/>
+      <c r="R89" s="47"/>
+      <c r="S89" s="47"/>
+      <c r="T89" s="47"/>
+      <c r="U89" s="47"/>
     </row>
     <row r="90" spans="1:21">
-      <c r="A90" s="48" t="s">
+      <c r="A90" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="B90" s="52">
+      <c r="B90" s="48">
         <f>B46-B71</f>
         <v>1132</v>
       </c>
-      <c r="C90" s="52">
+      <c r="C90" s="48">
         <f t="shared" ref="C90:U90" si="3">C46-C71</f>
         <v>1184</v>
       </c>
-      <c r="D90" s="52">
+      <c r="D90" s="48">
         <f t="shared" si="3"/>
         <v>1174</v>
       </c>
-      <c r="E90" s="52">
+      <c r="E90" s="48">
         <f t="shared" si="3"/>
         <v>1164</v>
       </c>
-      <c r="F90" s="52">
+      <c r="F90" s="48">
         <f t="shared" si="3"/>
         <v>1248</v>
       </c>
-      <c r="G90" s="52">
+      <c r="G90" s="48">
         <f t="shared" si="3"/>
         <v>1266</v>
       </c>
-      <c r="H90" s="52">
+      <c r="H90" s="48">
         <f t="shared" si="3"/>
         <v>1358</v>
       </c>
-      <c r="I90" s="52">
+      <c r="I90" s="48">
         <f t="shared" si="3"/>
         <v>1464</v>
       </c>
-      <c r="J90" s="52">
+      <c r="J90" s="48">
         <f t="shared" si="3"/>
         <v>1464</v>
       </c>
-      <c r="K90" s="52">
+      <c r="K90" s="48">
         <f t="shared" si="3"/>
         <v>1495</v>
       </c>
-      <c r="L90" s="52">
+      <c r="L90" s="48">
         <f t="shared" si="3"/>
         <v>1431</v>
       </c>
-      <c r="M90" s="52">
+      <c r="M90" s="48">
         <f t="shared" si="3"/>
         <v>1458</v>
       </c>
-      <c r="N90" s="52">
+      <c r="N90" s="48">
         <f t="shared" si="3"/>
         <v>1487</v>
       </c>
-      <c r="O90" s="52">
+      <c r="O90" s="48">
         <f t="shared" si="3"/>
         <v>1528</v>
       </c>
-      <c r="P90" s="52">
+      <c r="P90" s="48">
         <f t="shared" si="3"/>
         <v>1526</v>
       </c>
-      <c r="Q90" s="52">
+      <c r="Q90" s="48">
         <f t="shared" si="3"/>
         <v>1471</v>
       </c>
-      <c r="R90" s="52">
+      <c r="R90" s="48">
         <f t="shared" si="3"/>
         <v>1585</v>
       </c>
-      <c r="S90" s="52">
+      <c r="S90" s="48">
         <f t="shared" si="3"/>
         <v>1689</v>
       </c>
-      <c r="T90" s="52">
+      <c r="T90" s="48">
         <f t="shared" si="3"/>
         <v>1461</v>
       </c>
-      <c r="U90" s="52">
+      <c r="U90" s="48">
         <f t="shared" si="3"/>
         <v>1321</v>
       </c>
     </row>
     <row r="91" spans="1:21">
-      <c r="A91" s="49" t="s">
+      <c r="A91" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="B91" s="52"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="52"/>
-      <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="52"/>
-      <c r="H91" s="52"/>
-      <c r="I91" s="52"/>
-      <c r="J91" s="52"/>
-      <c r="K91" s="52"/>
-      <c r="L91" s="52"/>
-      <c r="M91" s="52"/>
-      <c r="N91" s="52"/>
-      <c r="O91" s="52"/>
-      <c r="P91" s="52"/>
-      <c r="Q91" s="52"/>
-      <c r="R91" s="52"/>
-      <c r="S91" s="52"/>
-      <c r="T91" s="52"/>
-      <c r="U91" s="52"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="48"/>
+      <c r="L91" s="48"/>
+      <c r="M91" s="48"/>
+      <c r="N91" s="48"/>
+      <c r="O91" s="48"/>
+      <c r="P91" s="48"/>
+      <c r="Q91" s="48"/>
+      <c r="R91" s="48"/>
+      <c r="S91" s="48"/>
+      <c r="T91" s="48"/>
+      <c r="U91" s="48"/>
     </row>
     <row r="92" spans="1:21">
-      <c r="A92" s="45" t="s">
+      <c r="A92" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="51"/>
-      <c r="G92" s="51"/>
-      <c r="H92" s="51"/>
-      <c r="I92" s="51"/>
-      <c r="J92" s="51"/>
-      <c r="K92" s="51"/>
-      <c r="L92" s="51"/>
-      <c r="M92" s="51"/>
-      <c r="N92" s="51"/>
-      <c r="O92" s="51"/>
-      <c r="P92" s="51"/>
-      <c r="Q92" s="51"/>
-      <c r="R92" s="51"/>
-      <c r="S92" s="51"/>
-      <c r="T92" s="51"/>
-      <c r="U92" s="51"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="47"/>
+      <c r="Q92" s="47"/>
+      <c r="R92" s="47"/>
+      <c r="S92" s="47"/>
+      <c r="T92" s="47"/>
+      <c r="U92" s="47"/>
     </row>
     <row r="93" spans="1:21">
-      <c r="A93" s="49" t="s">
+      <c r="A93" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="52">
+      <c r="B93" s="48">
         <f>B52-B74</f>
         <v>814</v>
       </c>
-      <c r="C93" s="52">
+      <c r="C93" s="48">
         <f t="shared" ref="C93:U93" si="4">C52-C74</f>
         <v>861</v>
       </c>
-      <c r="D93" s="52">
+      <c r="D93" s="48">
         <f t="shared" si="4"/>
         <v>789</v>
       </c>
-      <c r="E93" s="52">
+      <c r="E93" s="48">
         <f t="shared" si="4"/>
         <v>850</v>
       </c>
-      <c r="F93" s="52">
+      <c r="F93" s="48">
         <f t="shared" si="4"/>
         <v>958</v>
       </c>
-      <c r="G93" s="52">
+      <c r="G93" s="48">
         <f t="shared" si="4"/>
         <v>882</v>
       </c>
-      <c r="H93" s="52">
+      <c r="H93" s="48">
         <f t="shared" si="4"/>
         <v>950</v>
       </c>
-      <c r="I93" s="52">
+      <c r="I93" s="48">
         <f t="shared" si="4"/>
         <v>964</v>
       </c>
-      <c r="J93" s="52">
+      <c r="J93" s="48">
         <f t="shared" si="4"/>
         <v>1006</v>
       </c>
-      <c r="K93" s="52">
+      <c r="K93" s="48">
         <f t="shared" si="4"/>
         <v>1025</v>
       </c>
-      <c r="L93" s="52">
+      <c r="L93" s="48">
         <f t="shared" si="4"/>
         <v>919</v>
       </c>
-      <c r="M93" s="52">
+      <c r="M93" s="48">
         <f t="shared" si="4"/>
         <v>901</v>
       </c>
-      <c r="N93" s="52">
+      <c r="N93" s="48">
         <f t="shared" si="4"/>
         <v>895</v>
       </c>
-      <c r="O93" s="52">
+      <c r="O93" s="48">
         <f t="shared" si="4"/>
         <v>940</v>
       </c>
-      <c r="P93" s="52">
+      <c r="P93" s="48">
         <f t="shared" si="4"/>
         <v>871</v>
       </c>
-      <c r="Q93" s="52">
+      <c r="Q93" s="48">
         <f t="shared" si="4"/>
         <v>868</v>
       </c>
-      <c r="R93" s="52">
+      <c r="R93" s="48">
         <f t="shared" si="4"/>
         <v>949</v>
       </c>
-      <c r="S93" s="52">
+      <c r="S93" s="48">
         <f t="shared" si="4"/>
         <v>893</v>
       </c>
-      <c r="T93" s="52">
+      <c r="T93" s="48">
         <f t="shared" si="4"/>
         <v>897</v>
       </c>
-      <c r="U93" s="52">
+      <c r="U93" s="48">
         <f t="shared" si="4"/>
         <v>743</v>
       </c>
     </row>
     <row r="94" spans="1:21">
-      <c r="A94" s="48" t="s">
+      <c r="A94" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="52"/>
-      <c r="C94" s="52"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="52"/>
-      <c r="H94" s="52"/>
-      <c r="I94" s="52"/>
-      <c r="J94" s="52"/>
-      <c r="K94" s="52"/>
-      <c r="L94" s="52"/>
-      <c r="M94" s="52"/>
-      <c r="N94" s="52"/>
-      <c r="O94" s="52"/>
-      <c r="P94" s="52"/>
-      <c r="Q94" s="52"/>
-      <c r="R94" s="52"/>
-      <c r="S94" s="52"/>
-      <c r="T94" s="52"/>
-      <c r="U94" s="52"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="48"/>
+      <c r="J94" s="48"/>
+      <c r="K94" s="48"/>
+      <c r="L94" s="48"/>
+      <c r="M94" s="48"/>
+      <c r="N94" s="48"/>
+      <c r="O94" s="48"/>
+      <c r="P94" s="48"/>
+      <c r="Q94" s="48"/>
+      <c r="R94" s="48"/>
+      <c r="S94" s="48"/>
+      <c r="T94" s="48"/>
+      <c r="U94" s="48"/>
     </row>
     <row r="95" spans="1:21">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="51"/>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="51"/>
-      <c r="G95" s="51"/>
-      <c r="H95" s="51"/>
-      <c r="I95" s="51"/>
-      <c r="J95" s="51"/>
-      <c r="K95" s="51"/>
-      <c r="L95" s="51"/>
-      <c r="M95" s="51"/>
-      <c r="N95" s="51"/>
-      <c r="O95" s="51"/>
-      <c r="P95" s="51"/>
-      <c r="Q95" s="51"/>
-      <c r="R95" s="51"/>
-      <c r="S95" s="51"/>
-      <c r="T95" s="51"/>
-      <c r="U95" s="51"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="47"/>
+      <c r="N95" s="47"/>
+      <c r="O95" s="47"/>
+      <c r="P95" s="47"/>
+      <c r="Q95" s="47"/>
+      <c r="R95" s="47"/>
+      <c r="S95" s="47"/>
+      <c r="T95" s="47"/>
+      <c r="U95" s="47"/>
     </row>
     <row r="96" spans="1:21">
-      <c r="A96" s="48" t="s">
+      <c r="A96" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="B96" s="52">
+      <c r="B96" s="48">
         <f>B58-B77</f>
         <v>4430</v>
       </c>
-      <c r="C96" s="52">
+      <c r="C96" s="48">
         <f t="shared" ref="C96:U96" si="5">C58-C77</f>
         <v>4432</v>
       </c>
-      <c r="D96" s="52">
+      <c r="D96" s="48">
         <f t="shared" si="5"/>
         <v>4367</v>
       </c>
-      <c r="E96" s="52">
+      <c r="E96" s="48">
         <f t="shared" si="5"/>
         <v>4280</v>
       </c>
-      <c r="F96" s="52">
+      <c r="F96" s="48">
         <f t="shared" si="5"/>
         <v>4399</v>
       </c>
-      <c r="G96" s="52">
+      <c r="G96" s="48">
         <f t="shared" si="5"/>
         <v>4226</v>
       </c>
-      <c r="H96" s="52">
+      <c r="H96" s="48">
         <f t="shared" si="5"/>
         <v>4457</v>
       </c>
-      <c r="I96" s="52">
+      <c r="I96" s="48">
         <f t="shared" si="5"/>
         <v>4623</v>
       </c>
-      <c r="J96" s="52">
+      <c r="J96" s="48">
         <f t="shared" si="5"/>
         <v>4619</v>
       </c>
-      <c r="K96" s="52">
+      <c r="K96" s="48">
         <f t="shared" si="5"/>
         <v>4616</v>
       </c>
-      <c r="L96" s="52">
+      <c r="L96" s="48">
         <f t="shared" si="5"/>
         <v>4324</v>
       </c>
-      <c r="M96" s="52">
+      <c r="M96" s="48">
         <f t="shared" si="5"/>
         <v>4334</v>
       </c>
-      <c r="N96" s="52">
+      <c r="N96" s="48">
         <f t="shared" si="5"/>
         <v>4316</v>
       </c>
-      <c r="O96" s="52">
+      <c r="O96" s="48">
         <f t="shared" si="5"/>
         <v>4376</v>
       </c>
-      <c r="P96" s="52">
+      <c r="P96" s="48">
         <f t="shared" si="5"/>
         <v>4309</v>
       </c>
-      <c r="Q96" s="52">
+      <c r="Q96" s="48">
         <f t="shared" si="5"/>
         <v>4138</v>
       </c>
-      <c r="R96" s="52">
+      <c r="R96" s="48">
         <f t="shared" si="5"/>
         <v>4413</v>
       </c>
-      <c r="S96" s="52">
+      <c r="S96" s="48">
         <f t="shared" si="5"/>
         <v>4408</v>
       </c>
-      <c r="T96" s="52">
+      <c r="T96" s="48">
         <f t="shared" si="5"/>
         <v>4011</v>
       </c>
-      <c r="U96" s="52">
+      <c r="U96" s="48">
         <f t="shared" si="5"/>
         <v>3706</v>
       </c>
     </row>
     <row r="97" spans="1:21">
-      <c r="A97" s="49" t="s">
+      <c r="A97" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="B97" s="52"/>
-      <c r="C97" s="52"/>
-      <c r="D97" s="52"/>
-      <c r="E97" s="52"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="52"/>
-      <c r="H97" s="52"/>
-      <c r="I97" s="52"/>
-      <c r="J97" s="52"/>
-      <c r="K97" s="52"/>
-      <c r="L97" s="52"/>
-      <c r="M97" s="52"/>
-      <c r="N97" s="52"/>
-      <c r="O97" s="52"/>
-      <c r="P97" s="52"/>
-      <c r="Q97" s="52"/>
-      <c r="R97" s="52"/>
-      <c r="S97" s="52"/>
-      <c r="T97" s="52"/>
-      <c r="U97" s="52"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="48"/>
+      <c r="J97" s="48"/>
+      <c r="K97" s="48"/>
+      <c r="L97" s="48"/>
+      <c r="M97" s="48"/>
+      <c r="N97" s="48"/>
+      <c r="O97" s="48"/>
+      <c r="P97" s="48"/>
+      <c r="Q97" s="48"/>
+      <c r="R97" s="48"/>
+      <c r="S97" s="48"/>
+      <c r="T97" s="48"/>
+      <c r="U97" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A79:U80"/>
     <mergeCell ref="V27:V28"/>
     <mergeCell ref="A16:V17"/>
     <mergeCell ref="A1:V2"/>
     <mergeCell ref="A60:U61"/>
     <mergeCell ref="A25:U26"/>
-    <mergeCell ref="A79:U80"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21473,8 +21270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.95" customHeight="1"/>
